--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3620.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3620.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.265829046548451</v>
+        <v>1.745293259620667</v>
       </c>
       <c r="B1">
-        <v>2.240559529623015</v>
+        <v>2.762935161590576</v>
       </c>
       <c r="C1">
-        <v>2.990664565087453</v>
+        <v>3.426137208938599</v>
       </c>
       <c r="D1">
-        <v>3.389439995737718</v>
+        <v>1.315690398216248</v>
       </c>
       <c r="E1">
-        <v>1.105573216226425</v>
+        <v>0.8754382133483887</v>
       </c>
     </row>
   </sheetData>
